--- a/02Others/WorkingTime.xlsx
+++ b/02Others/WorkingTime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2465C0-05A5-409E-B244-971EE4C24B58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0169A4F-0BD7-46BB-B0C8-59776C499545}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Day</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Etapa2 Deadline</t>
+  </si>
+  <si>
+    <t>Reunião com Nuno Cardoso</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,13 +636,21 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
+      <c r="A5" s="4">
+        <v>44263</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.8125</v>
+      </c>
       <c r="E5" s="5">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>4.861111111111116E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -656,7 +667,7 @@
       </c>
       <c r="H6" s="1">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>0.17013888888888895</v>
+        <v>0.21875000000000011</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">

--- a/02Others/WorkingTime.xlsx
+++ b/02Others/WorkingTime.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0169A4F-0BD7-46BB-B0C8-59776C499545}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE94AE9-C57F-4D16-AECC-093DF6DF690D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="LogBook" sheetId="1" r:id="rId1"/>
+    <sheet name="Components" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Day</t>
   </si>
@@ -73,6 +74,39 @@
   </si>
   <si>
     <t>Reunião com Nuno Cardoso</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Sonar</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Par Infravermelhos</t>
+  </si>
+  <si>
+    <t>Módulo Bluetooth</t>
+  </si>
+  <si>
+    <t>https://www.ptrobotics.com/modulos-bluetooth/4364-bluetooth-module-hc-05.html</t>
+  </si>
+  <si>
+    <t>https://www.ptrobotics.com/sensores-opticos/5913-ir-emitter-and-receiver-led-5mm-940nm.html</t>
+  </si>
+  <si>
+    <t>https://www.ptrobotics.com/sensor-ultrasom/8220-us-015-modulo-sensor-de-distancia-ultrassonico-33-5v.html</t>
+  </si>
+  <si>
+    <t>Câmara</t>
+  </si>
+  <si>
+    <t>https://www.ptrobotics.com/cameras/3928-ov7670-camera-module.html</t>
+  </si>
+  <si>
+    <t>Planeamento concluído. Escolha de componentes a usar.</t>
   </si>
 </sst>
 </file>
@@ -82,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +153,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -142,13 +184,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -168,13 +210,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Cor1" xfId="1" builtinId="29"/>
+    <cellStyle name="Hiperligação" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -217,16 +281,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:E8" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="4">
       <calculatedColumnFormula>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A1:B7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:B7" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Component" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="Link" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -532,160 +607,168 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>44253</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>0.64930555555555558</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>7.6388888888888951E-2</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="3">
         <v>44260</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>44258</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="3">
         <v>44281</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>44263</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.67708333333333337</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.375E-2</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="3">
         <v>44370</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>44263</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.76388888888888884</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.8125</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>4.861111111111116E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5">
+      <c r="A6" s="3">
+        <v>44265</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E6" s="4">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4">
+        <f>SUM(Tabela1[[#All],[Duration]])</f>
+        <v>0.30208333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1">
-        <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>0.21875000000000011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5">
-        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
@@ -698,4 +781,81 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C227607-00A4-48AA-9A87-27CE805F8079}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="103.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" tooltip="https://www.ptrobotics.com/modulos-bluetooth/4364-bluetooth-module-hc-05.html" xr:uid="{43E5E3BA-1B3D-40D7-9895-B2ACFFB7CB31}"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="https://www.ptrobotics.com/sensores-opticos/5913-ir-emitter-and-receiver-led-5mm-940nm.html" xr:uid="{9FB58DA0-0B2C-427D-8B04-02BE906F9377}"/>
+    <hyperlink ref="B2" r:id="rId3" tooltip="https://www.ptrobotics.com/sensor-ultrasom/8220-us-015-modulo-sensor-de-distancia-ultrassonico-33-5v.html" xr:uid="{25E4C120-DCD2-4E79-BFD5-298ACDB44204}"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="https://www.ptrobotics.com/cameras/3928-ov7670-camera-module.html" xr:uid="{2A05B4B2-46DB-4AAF-8EB6-3ED85AD15B2E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
 </file>